--- a/Unity/Assets/Config/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,38 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DDC4EF-163D-43C3-AA98-20CE3F1300DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -40,24 +47,15 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
+0</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">为显示
@@ -67,7 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -75,7 +73,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>为不现实配合多行数据显示调用</t>
@@ -87,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="130">
   <si>
     <t>Id</t>
   </si>
@@ -401,216 +398,95 @@
     <t>100202,0.05</t>
   </si>
   <si>
+    <t>真实伤害提高300点</t>
+  </si>
+  <si>
+    <t>110301,300</t>
+  </si>
+  <si>
+    <t>忽视目标防御值400点</t>
+  </si>
+  <si>
+    <t>118101,400</t>
+  </si>
+  <si>
     <t>暴击套装</t>
   </si>
   <si>
     <t>生肖套装</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防+1%</t>
+  </si>
+  <si>
+    <t>100802,0.01</t>
+  </si>
+  <si>
+    <t>法术+1%</t>
+  </si>
+  <si>
+    <t>101002,0.01</t>
   </si>
   <si>
     <t>暴击+1%</t>
   </si>
   <si>
-    <t>魔防+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+1%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402,0.01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100602,0.01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100802,0.01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>101002,0.01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>魔防+1.5%</t>
   </si>
   <si>
     <t>100802,0.015</t>
   </si>
   <si>
+    <t>法术+1.5%</t>
+  </si>
+  <si>
     <t>101002,0.015</t>
   </si>
   <si>
-    <t>100602,0.015</t>
-  </si>
-  <si>
-    <t>100402,0.015</t>
-  </si>
-  <si>
-    <t>100202,0.015</t>
-  </si>
-  <si>
-    <t>魔防+1.5%</t>
-  </si>
-  <si>
-    <t>法术+1.5%</t>
-  </si>
-  <si>
     <t>暴击+1.5%</t>
   </si>
   <si>
-    <t>物防+1.5%</t>
-  </si>
-  <si>
-    <t>攻击+1.5%</t>
-  </si>
-  <si>
-    <t>命中+1.5%</t>
-  </si>
-  <si>
-    <t>抗暴+1.5%</t>
-  </si>
-  <si>
-    <t>血量+1.5%</t>
-  </si>
-  <si>
-    <t>闪避+1.5%</t>
-  </si>
-  <si>
     <t>魔防+2%</t>
   </si>
   <si>
+    <t>100802,0.02</t>
+  </si>
+  <si>
     <t>法术+2%</t>
   </si>
   <si>
+    <t>101002,0.02</t>
+  </si>
+  <si>
     <t>暴击+2%</t>
   </si>
   <si>
-    <t>物防+2%</t>
-  </si>
-  <si>
-    <t>攻击+2%</t>
-  </si>
-  <si>
-    <t>命中+2%</t>
-  </si>
-  <si>
-    <t>抗暴+2%</t>
-  </si>
-  <si>
-    <t>血量+2%</t>
+    <t>力量+20</t>
+  </si>
+  <si>
+    <t>105103,20</t>
+  </si>
+  <si>
+    <t>敏捷+20</t>
+  </si>
+  <si>
+    <t>105203,20</t>
   </si>
   <si>
     <t>闪避+2%</t>
-  </si>
-  <si>
-    <t>100802,0.02</t>
-  </si>
-  <si>
-    <t>101002,0.02</t>
-  </si>
-  <si>
-    <t>100602,0.02</t>
-  </si>
-  <si>
-    <t>100402,0.02</t>
-  </si>
-  <si>
-    <t>100202,0.02</t>
-  </si>
-  <si>
-    <t>真实伤害提高300点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽视目标防御值400点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>118101,400</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>110301,300</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量+20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷+20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力+20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+20</t>
-  </si>
-  <si>
-    <t>105103,20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>105203,20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>105503,20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>105403,20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>200403,0.02</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质+20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>105303,20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,7 +498,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -630,14 +505,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -645,15 +518,157 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -661,28 +676,20 @@
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,12 +716,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -742,17 +935,6 @@
       <right style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </top>
@@ -770,12 +952,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -786,13 +1221,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,28 +1239,69 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1109,22 +1588,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:X106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="$A81:$XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -1146,9 +1626,9 @@
     <col min="24" max="24" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" ht="12.75" customHeight="1"/>
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="3:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1352,7 +1832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="20.1" customHeight="1" spans="3:24">
       <c r="C6" s="6">
         <v>110111</v>
       </c>
@@ -1420,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="20.1" customHeight="1" spans="3:24">
       <c r="C7" s="6">
         <v>110112</v>
       </c>
@@ -1488,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="20.1" customHeight="1" spans="3:24">
       <c r="C8" s="6">
         <v>110121</v>
       </c>
@@ -1556,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="20.1" customHeight="1" spans="3:24">
       <c r="C9" s="6">
         <v>110211</v>
       </c>
@@ -1624,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="20.1" customHeight="1" spans="3:24">
       <c r="C10" s="6">
         <v>110212</v>
       </c>
@@ -1692,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="20.1" customHeight="1" spans="3:24">
       <c r="C11" s="6">
         <v>110221</v>
       </c>
@@ -1760,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="20.1" customHeight="1" spans="3:24">
       <c r="C12" s="6">
         <v>110311</v>
       </c>
@@ -1828,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="20.1" customHeight="1" spans="3:24">
       <c r="C13" s="6">
         <v>110312</v>
       </c>
@@ -1896,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="20.1" customHeight="1" spans="3:24">
       <c r="C14" s="6">
         <v>110321</v>
       </c>
@@ -1964,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C15" s="9">
         <v>110411</v>
       </c>
@@ -2032,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C16" s="9">
         <v>110412</v>
       </c>
@@ -2100,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C17" s="9">
         <v>110413</v>
       </c>
@@ -2168,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C18" s="9">
         <v>110421</v>
       </c>
@@ -2236,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C19" s="9">
         <v>110422</v>
       </c>
@@ -2304,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C20" s="9">
         <v>110423</v>
       </c>
@@ -2372,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C21" s="9">
         <v>110431</v>
       </c>
@@ -2440,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C22" s="9">
         <v>110432</v>
       </c>
@@ -2508,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C23" s="9">
         <v>110433</v>
       </c>
@@ -2576,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C24" s="9">
         <v>120111</v>
       </c>
@@ -2644,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C25" s="9">
         <v>120112</v>
       </c>
@@ -2712,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C26" s="9">
         <v>120113</v>
       </c>
@@ -2780,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C27" s="9">
         <v>120121</v>
       </c>
@@ -2848,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C28" s="9">
         <v>120122</v>
       </c>
@@ -2916,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C29" s="9">
         <v>120123</v>
       </c>
@@ -2984,7 +3464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C30" s="9">
         <v>120131</v>
       </c>
@@ -3052,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C31" s="9">
         <v>120132</v>
       </c>
@@ -3120,7 +3600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C32" s="9">
         <v>120133</v>
       </c>
@@ -3188,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C33" s="9">
         <v>130111</v>
       </c>
@@ -3256,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C34" s="9">
         <v>130112</v>
       </c>
@@ -3324,7 +3804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C35" s="9">
         <v>130113</v>
       </c>
@@ -3392,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C36" s="9">
         <v>130121</v>
       </c>
@@ -3460,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C37" s="9">
         <v>130122</v>
       </c>
@@ -3528,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C38" s="9">
         <v>130123</v>
       </c>
@@ -3596,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C39" s="9">
         <v>130131</v>
       </c>
@@ -3664,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C40" s="9">
         <v>130132</v>
       </c>
@@ -3732,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C41" s="9">
         <v>130133</v>
       </c>
@@ -3800,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C42" s="9">
         <v>140111</v>
       </c>
@@ -3868,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C43" s="9">
         <v>140112</v>
       </c>
@@ -3936,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C44" s="9">
         <v>140113</v>
       </c>
@@ -4004,7 +4484,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C45" s="9">
         <v>140121</v>
       </c>
@@ -4072,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="20.1" customHeight="1" spans="3:24">
       <c r="C46" s="9">
         <v>140122</v>
       </c>
@@ -4140,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C47" s="9">
         <v>140123</v>
       </c>
@@ -4208,7 +4688,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C48" s="9">
         <v>140131</v>
       </c>
@@ -4276,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C49" s="9">
         <v>140132</v>
       </c>
@@ -4344,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:24" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C50" s="9">
         <v>140133</v>
       </c>
@@ -4412,7 +4892,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="20.1" customHeight="1" spans="3:24">
       <c r="C51" s="9">
         <v>150111</v>
       </c>
@@ -4480,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="20.1" customHeight="1" spans="3:24">
       <c r="C52" s="9">
         <v>150112</v>
       </c>
@@ -4548,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="20.1" customHeight="1" spans="3:24">
       <c r="C53" s="9">
         <v>150113</v>
       </c>
@@ -4616,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="20.1" customHeight="1" spans="3:24">
       <c r="C54" s="9">
         <v>150121</v>
       </c>
@@ -4684,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="20.1" customHeight="1" spans="3:24">
       <c r="C55" s="9">
         <v>150122</v>
       </c>
@@ -4752,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="20.1" customHeight="1" spans="3:24">
       <c r="C56" s="9">
         <v>150123</v>
       </c>
@@ -4820,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="20.1" customHeight="1" spans="3:24">
       <c r="C57" s="9">
         <v>150131</v>
       </c>
@@ -4888,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="20.1" customHeight="1" spans="3:24">
       <c r="C58" s="9">
         <v>150132</v>
       </c>
@@ -4956,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="20.1" customHeight="1" spans="3:24">
       <c r="C59" s="9">
         <v>150133</v>
       </c>
@@ -5024,7 +5504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="20.1" customHeight="1" spans="3:24">
       <c r="C60" s="9">
         <v>160111</v>
       </c>
@@ -5088,11 +5568,11 @@
       <c r="W60" s="6">
         <v>0</v>
       </c>
-      <c r="X60" s="12" t="s">
+      <c r="X60" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="20.1" customHeight="1" spans="3:24">
       <c r="C61" s="9">
         <v>160112</v>
       </c>
@@ -5160,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="20.1" customHeight="1" spans="3:24">
       <c r="C62" s="9">
         <v>160113</v>
       </c>
@@ -5228,7 +5708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="20.1" customHeight="1" spans="3:24">
       <c r="C63" s="9">
         <v>160121</v>
       </c>
@@ -5292,11 +5772,11 @@
       <c r="W63" s="6">
         <v>0</v>
       </c>
-      <c r="X63" s="12" t="s">
+      <c r="X63" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="20.1" customHeight="1" spans="3:24">
       <c r="C64" s="9">
         <v>160122</v>
       </c>
@@ -5364,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="20.1" customHeight="1" spans="3:24">
       <c r="C65" s="9">
         <v>160123</v>
       </c>
@@ -5432,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="20.1" customHeight="1" spans="3:24">
       <c r="C66" s="9">
         <v>160131</v>
       </c>
@@ -5496,11 +5976,11 @@
       <c r="W66" s="6">
         <v>0</v>
       </c>
-      <c r="X66" s="12" t="s">
+      <c r="X66" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="20.1" customHeight="1" spans="3:24">
       <c r="C67" s="9">
         <v>160132</v>
       </c>
@@ -5568,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="20.1" customHeight="1" spans="3:24">
       <c r="C68" s="9">
         <v>160133</v>
       </c>
@@ -5636,7 +6116,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="20.1" customHeight="1" spans="3:24">
       <c r="C69" s="9">
         <v>170111</v>
       </c>
@@ -5644,7 +6124,7 @@
         <v>52</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F69" s="8">
         <v>0</v>
@@ -5700,11 +6180,11 @@
       <c r="W69" s="6">
         <v>0</v>
       </c>
-      <c r="X69" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X69" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:24">
       <c r="C70" s="9">
         <v>170112</v>
       </c>
@@ -5772,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="20.1" customHeight="1" spans="3:24">
       <c r="C71" s="9">
         <v>170113</v>
       </c>
@@ -5840,7 +6320,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="20.1" customHeight="1" spans="3:24">
       <c r="C72" s="9">
         <v>170121</v>
       </c>
@@ -5904,11 +6384,11 @@
       <c r="W72" s="6">
         <v>0</v>
       </c>
-      <c r="X72" s="12" t="s">
+      <c r="X72" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="20.1" customHeight="1" spans="3:24">
       <c r="C73" s="9">
         <v>170122</v>
       </c>
@@ -5976,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="20.1" customHeight="1" spans="3:24">
       <c r="C74" s="9">
         <v>170123</v>
       </c>
@@ -6044,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="20.1" customHeight="1" spans="3:24">
       <c r="C75" s="9">
         <v>170131</v>
       </c>
@@ -6052,7 +6532,7 @@
         <v>52</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="F75" s="8">
         <v>0</v>
@@ -6108,11 +6588,11 @@
       <c r="W75" s="6">
         <v>0</v>
       </c>
-      <c r="X75" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X75" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:24">
       <c r="C76" s="9">
         <v>170132</v>
       </c>
@@ -6180,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="20.1" customHeight="1" spans="3:24">
       <c r="C77" s="9">
         <v>170133</v>
       </c>
@@ -6248,12 +6728,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="20.1" customHeight="1" spans="3:24">
       <c r="C78" s="6">
         <v>200001</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>63</v>
@@ -6316,15 +6796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" ht="20.1" customHeight="1" spans="3:24">
       <c r="C79" s="6">
         <v>300011</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>105</v>
+      <c r="D79" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F79" s="8">
         <v>0</v>
@@ -6381,18 +6861,18 @@
         <v>0</v>
       </c>
       <c r="X79" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" ht="20.1" customHeight="1" spans="3:24">
       <c r="C80" s="6">
         <v>300012</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>105</v>
+      <c r="D80" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F80" s="8">
         <v>0</v>
@@ -6449,18 +6929,18 @@
         <v>0</v>
       </c>
       <c r="X80" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" ht="20.1" customHeight="1" spans="3:24">
       <c r="C81" s="6">
         <v>300013</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>105</v>
+      <c r="D81" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F81" s="8">
         <v>0</v>
@@ -6520,15 +7000,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" ht="20.1" customHeight="1" spans="3:24">
       <c r="C82" s="6">
-        <v>300021</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>105</v>
+        <v>300111</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F82" s="8">
         <v>0</v>
@@ -6588,15 +7068,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="20.1" customHeight="1" spans="3:24">
       <c r="C83" s="6">
-        <v>300022</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>105</v>
+        <v>300112</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F83" s="8">
         <v>0</v>
@@ -6653,86 +7133,86 @@
         <v>0</v>
       </c>
       <c r="X83" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:24">
       <c r="C84" s="6">
-        <v>300023</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>105</v>
+        <v>300113</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0</v>
+      </c>
+      <c r="O84" s="8">
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <v>0.015</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84" s="6">
+        <v>0</v>
+      </c>
+      <c r="S84" s="6">
+        <v>0</v>
+      </c>
+      <c r="T84" s="6">
+        <v>0</v>
+      </c>
+      <c r="U84" s="6">
+        <v>0</v>
+      </c>
+      <c r="V84" s="6">
+        <v>0</v>
+      </c>
+      <c r="W84" s="6">
+        <v>0</v>
+      </c>
+      <c r="X84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:24">
+      <c r="C85" s="6">
+        <v>300211</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F84" s="8">
-        <v>0</v>
-      </c>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
-        <v>0</v>
-      </c>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0</v>
-      </c>
-      <c r="L84" s="8">
-        <v>0</v>
-      </c>
-      <c r="M84" s="8">
-        <v>0</v>
-      </c>
-      <c r="N84" s="8">
-        <v>0</v>
-      </c>
-      <c r="O84" s="8">
-        <v>0</v>
-      </c>
-      <c r="P84" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="R84" s="6">
-        <v>0</v>
-      </c>
-      <c r="S84" s="6">
-        <v>0</v>
-      </c>
-      <c r="T84" s="6">
-        <v>0</v>
-      </c>
-      <c r="U84" s="6">
-        <v>0</v>
-      </c>
-      <c r="V84" s="6">
-        <v>0</v>
-      </c>
-      <c r="W84" s="6">
-        <v>0</v>
-      </c>
-      <c r="X84" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="6">
-        <v>300031</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="E85" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F85" s="8">
         <v>0</v>
@@ -6788,19 +7268,19 @@
       <c r="W85" s="6">
         <v>0</v>
       </c>
-      <c r="X85" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X85" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" ht="20.1" customHeight="1" spans="3:24">
       <c r="C86" s="6">
-        <v>300032</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>105</v>
+        <v>300212</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F86" s="8">
         <v>0</v>
@@ -6857,18 +7337,18 @@
         <v>0</v>
       </c>
       <c r="X86" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:24">
       <c r="C87" s="6">
-        <v>300033</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>105</v>
+        <v>300213</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F87" s="8">
         <v>0</v>
@@ -6901,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="P87" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q87" s="6">
         <v>0</v>
       </c>
       <c r="R87" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S87" s="6">
         <v>0</v>
@@ -6928,12 +7408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" ht="20.1" customHeight="1" spans="3:24">
       <c r="C88" s="6">
-        <v>300111</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>105</v>
+        <v>300311</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>125</v>
@@ -6993,18 +7473,18 @@
         <v>0</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:24">
       <c r="C89" s="6">
-        <v>300112</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>105</v>
+        <v>300312</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="8">
         <v>0</v>
@@ -7061,18 +7541,18 @@
         <v>0</v>
       </c>
       <c r="X89" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:24">
       <c r="C90" s="6">
-        <v>300113</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>105</v>
+        <v>300313</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F90" s="8">
         <v>0</v>
@@ -7105,13 +7585,13 @@
         <v>0</v>
       </c>
       <c r="P90" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="6">
         <v>0</v>
       </c>
       <c r="R90" s="6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -7132,1658 +7612,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="6">
-        <v>300121</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="8">
-        <v>0</v>
-      </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
-        <v>0</v>
-      </c>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0</v>
-      </c>
-      <c r="L91" s="8">
-        <v>0</v>
-      </c>
-      <c r="M91" s="8">
-        <v>0</v>
-      </c>
-      <c r="N91" s="8">
-        <v>0</v>
-      </c>
-      <c r="O91" s="8">
-        <v>0</v>
-      </c>
-      <c r="P91" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>0</v>
-      </c>
-      <c r="R91" s="6">
-        <v>0</v>
-      </c>
-      <c r="S91" s="6">
-        <v>0</v>
-      </c>
-      <c r="T91" s="6">
-        <v>0</v>
-      </c>
-      <c r="U91" s="6">
-        <v>0</v>
-      </c>
-      <c r="V91" s="6">
-        <v>0</v>
-      </c>
-      <c r="W91" s="6">
-        <v>0</v>
-      </c>
-      <c r="X91" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="6">
-        <v>300122</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F92" s="8">
-        <v>0</v>
-      </c>
-      <c r="G92" s="6">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
-        <v>0</v>
-      </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <v>0</v>
-      </c>
-      <c r="L92" s="8">
-        <v>0</v>
-      </c>
-      <c r="M92" s="8">
-        <v>0</v>
-      </c>
-      <c r="N92" s="8">
-        <v>0</v>
-      </c>
-      <c r="O92" s="8">
-        <v>0</v>
-      </c>
-      <c r="P92" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="6">
-        <v>0</v>
-      </c>
-      <c r="R92" s="6">
-        <v>0</v>
-      </c>
-      <c r="S92" s="6">
-        <v>0</v>
-      </c>
-      <c r="T92" s="6">
-        <v>0</v>
-      </c>
-      <c r="U92" s="6">
-        <v>0</v>
-      </c>
-      <c r="V92" s="6">
-        <v>0</v>
-      </c>
-      <c r="W92" s="6">
-        <v>0</v>
-      </c>
-      <c r="X92" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="6">
-        <v>300123</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" s="8">
-        <v>0</v>
-      </c>
-      <c r="G93" s="6">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0</v>
-      </c>
-      <c r="K93" s="6">
-        <v>0</v>
-      </c>
-      <c r="L93" s="8">
-        <v>0</v>
-      </c>
-      <c r="M93" s="8">
-        <v>0</v>
-      </c>
-      <c r="N93" s="8">
-        <v>0</v>
-      </c>
-      <c r="O93" s="8">
-        <v>0</v>
-      </c>
-      <c r="P93" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R93" s="6">
-        <v>0</v>
-      </c>
-      <c r="S93" s="6">
-        <v>0</v>
-      </c>
-      <c r="T93" s="6">
-        <v>0</v>
-      </c>
-      <c r="U93" s="6">
-        <v>0</v>
-      </c>
-      <c r="V93" s="6">
-        <v>0</v>
-      </c>
-      <c r="W93" s="6">
-        <v>0</v>
-      </c>
-      <c r="X93" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="6">
-        <v>300131</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0</v>
-      </c>
-      <c r="G94" s="6">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6">
-        <v>0</v>
-      </c>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <v>0</v>
-      </c>
-      <c r="K94" s="6">
-        <v>0</v>
-      </c>
-      <c r="L94" s="8">
-        <v>0</v>
-      </c>
-      <c r="M94" s="8">
-        <v>0</v>
-      </c>
-      <c r="N94" s="8">
-        <v>0</v>
-      </c>
-      <c r="O94" s="8">
-        <v>0</v>
-      </c>
-      <c r="P94" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>0</v>
-      </c>
-      <c r="R94" s="6">
-        <v>0</v>
-      </c>
-      <c r="S94" s="6">
-        <v>0</v>
-      </c>
-      <c r="T94" s="6">
-        <v>0</v>
-      </c>
-      <c r="U94" s="6">
-        <v>0</v>
-      </c>
-      <c r="V94" s="6">
-        <v>0</v>
-      </c>
-      <c r="W94" s="6">
-        <v>0</v>
-      </c>
-      <c r="X94" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="6">
-        <v>300132</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0</v>
-      </c>
-      <c r="G95" s="6">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <v>0</v>
-      </c>
-      <c r="L95" s="8">
-        <v>0</v>
-      </c>
-      <c r="M95" s="8">
-        <v>0</v>
-      </c>
-      <c r="N95" s="8">
-        <v>0</v>
-      </c>
-      <c r="O95" s="8">
-        <v>0</v>
-      </c>
-      <c r="P95" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="6">
-        <v>0</v>
-      </c>
-      <c r="R95" s="6">
-        <v>0</v>
-      </c>
-      <c r="S95" s="6">
-        <v>0</v>
-      </c>
-      <c r="T95" s="6">
-        <v>0</v>
-      </c>
-      <c r="U95" s="6">
-        <v>0</v>
-      </c>
-      <c r="V95" s="6">
-        <v>0</v>
-      </c>
-      <c r="W95" s="6">
-        <v>0</v>
-      </c>
-      <c r="X95" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="6">
-        <v>300133</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F96" s="8">
-        <v>0</v>
-      </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <v>0</v>
-      </c>
-      <c r="L96" s="8">
-        <v>0</v>
-      </c>
-      <c r="M96" s="8">
-        <v>0</v>
-      </c>
-      <c r="N96" s="8">
-        <v>0</v>
-      </c>
-      <c r="O96" s="8">
-        <v>0</v>
-      </c>
-      <c r="P96" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>0</v>
-      </c>
-      <c r="R96" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="S96" s="6">
-        <v>0</v>
-      </c>
-      <c r="T96" s="6">
-        <v>0</v>
-      </c>
-      <c r="U96" s="6">
-        <v>0</v>
-      </c>
-      <c r="V96" s="6">
-        <v>0</v>
-      </c>
-      <c r="W96" s="6">
-        <v>0</v>
-      </c>
-      <c r="X96" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="6">
-        <v>300211</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0</v>
-      </c>
-      <c r="H97" s="6">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <v>0</v>
-      </c>
-      <c r="L97" s="8">
-        <v>0</v>
-      </c>
-      <c r="M97" s="8">
-        <v>0</v>
-      </c>
-      <c r="N97" s="8">
-        <v>0</v>
-      </c>
-      <c r="O97" s="8">
-        <v>0</v>
-      </c>
-      <c r="P97" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="6">
-        <v>0</v>
-      </c>
-      <c r="R97" s="6">
-        <v>0</v>
-      </c>
-      <c r="S97" s="6">
-        <v>0</v>
-      </c>
-      <c r="T97" s="6">
-        <v>0</v>
-      </c>
-      <c r="U97" s="6">
-        <v>0</v>
-      </c>
-      <c r="V97" s="6">
-        <v>0</v>
-      </c>
-      <c r="W97" s="6">
-        <v>0</v>
-      </c>
-      <c r="X97" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="6">
-        <v>300212</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F98" s="8">
-        <v>0</v>
-      </c>
-      <c r="G98" s="6">
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <v>0</v>
-      </c>
-      <c r="K98" s="6">
-        <v>0</v>
-      </c>
-      <c r="L98" s="8">
-        <v>0</v>
-      </c>
-      <c r="M98" s="8">
-        <v>0</v>
-      </c>
-      <c r="N98" s="8">
-        <v>0</v>
-      </c>
-      <c r="O98" s="8">
-        <v>0</v>
-      </c>
-      <c r="P98" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>0</v>
-      </c>
-      <c r="R98" s="6">
-        <v>0</v>
-      </c>
-      <c r="S98" s="6">
-        <v>0</v>
-      </c>
-      <c r="T98" s="6">
-        <v>0</v>
-      </c>
-      <c r="U98" s="6">
-        <v>0</v>
-      </c>
-      <c r="V98" s="6">
-        <v>0</v>
-      </c>
-      <c r="W98" s="6">
-        <v>0</v>
-      </c>
-      <c r="X98" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="6">
-        <v>300213</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="8">
-        <v>0</v>
-      </c>
-      <c r="G99" s="6">
-        <v>0</v>
-      </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6">
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
-        <v>0</v>
-      </c>
-      <c r="K99" s="6">
-        <v>0</v>
-      </c>
-      <c r="L99" s="8">
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <v>0</v>
-      </c>
-      <c r="N99" s="8">
-        <v>0</v>
-      </c>
-      <c r="O99" s="8">
-        <v>0</v>
-      </c>
-      <c r="P99" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="Q99" s="6">
-        <v>0</v>
-      </c>
-      <c r="R99" s="6">
-        <v>0</v>
-      </c>
-      <c r="S99" s="6">
-        <v>0</v>
-      </c>
-      <c r="T99" s="6">
-        <v>0</v>
-      </c>
-      <c r="U99" s="6">
-        <v>0</v>
-      </c>
-      <c r="V99" s="6">
-        <v>0</v>
-      </c>
-      <c r="W99" s="6">
-        <v>0</v>
-      </c>
-      <c r="X99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="6">
-        <v>300221</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F100" s="8">
-        <v>0</v>
-      </c>
-      <c r="G100" s="6">
-        <v>0</v>
-      </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0</v>
-      </c>
-      <c r="K100" s="6">
-        <v>0</v>
-      </c>
-      <c r="L100" s="8">
-        <v>0</v>
-      </c>
-      <c r="M100" s="8">
-        <v>0</v>
-      </c>
-      <c r="N100" s="8">
-        <v>0</v>
-      </c>
-      <c r="O100" s="8">
-        <v>0</v>
-      </c>
-      <c r="P100" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="6">
-        <v>0</v>
-      </c>
-      <c r="R100" s="6">
-        <v>0</v>
-      </c>
-      <c r="S100" s="6">
-        <v>0</v>
-      </c>
-      <c r="T100" s="6">
-        <v>0</v>
-      </c>
-      <c r="U100" s="6">
-        <v>0</v>
-      </c>
-      <c r="V100" s="6">
-        <v>0</v>
-      </c>
-      <c r="W100" s="6">
-        <v>0</v>
-      </c>
-      <c r="X100" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="6">
-        <v>300222</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="8">
-        <v>0</v>
-      </c>
-      <c r="G101" s="6">
-        <v>0</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <v>0</v>
-      </c>
-      <c r="K101" s="6">
-        <v>0</v>
-      </c>
-      <c r="L101" s="8">
-        <v>0</v>
-      </c>
-      <c r="M101" s="8">
-        <v>0</v>
-      </c>
-      <c r="N101" s="8">
-        <v>0</v>
-      </c>
-      <c r="O101" s="8">
-        <v>0</v>
-      </c>
-      <c r="P101" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="6">
-        <v>0</v>
-      </c>
-      <c r="R101" s="6">
-        <v>0</v>
-      </c>
-      <c r="S101" s="6">
-        <v>0</v>
-      </c>
-      <c r="T101" s="6">
-        <v>0</v>
-      </c>
-      <c r="U101" s="6">
-        <v>0</v>
-      </c>
-      <c r="V101" s="6">
-        <v>0</v>
-      </c>
-      <c r="W101" s="6">
-        <v>0</v>
-      </c>
-      <c r="X101" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="6">
-        <v>300223</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" s="8">
-        <v>0</v>
-      </c>
-      <c r="G102" s="6">
-        <v>0</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <v>0</v>
-      </c>
-      <c r="L102" s="8">
-        <v>0</v>
-      </c>
-      <c r="M102" s="8">
-        <v>0</v>
-      </c>
-      <c r="N102" s="8">
-        <v>0</v>
-      </c>
-      <c r="O102" s="8">
-        <v>0</v>
-      </c>
-      <c r="P102" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="R102" s="6">
-        <v>0</v>
-      </c>
-      <c r="S102" s="6">
-        <v>0</v>
-      </c>
-      <c r="T102" s="6">
-        <v>0</v>
-      </c>
-      <c r="U102" s="6">
-        <v>0</v>
-      </c>
-      <c r="V102" s="6">
-        <v>0</v>
-      </c>
-      <c r="W102" s="6">
-        <v>0</v>
-      </c>
-      <c r="X102" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="6">
-        <v>300231</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103" s="8">
-        <v>0</v>
-      </c>
-      <c r="G103" s="6">
-        <v>0</v>
-      </c>
-      <c r="H103" s="6">
-        <v>0</v>
-      </c>
-      <c r="I103" s="6">
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <v>0</v>
-      </c>
-      <c r="K103" s="6">
-        <v>0</v>
-      </c>
-      <c r="L103" s="8">
-        <v>0</v>
-      </c>
-      <c r="M103" s="8">
-        <v>0</v>
-      </c>
-      <c r="N103" s="8">
-        <v>0</v>
-      </c>
-      <c r="O103" s="8">
-        <v>0</v>
-      </c>
-      <c r="P103" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>0</v>
-      </c>
-      <c r="R103" s="6">
-        <v>0</v>
-      </c>
-      <c r="S103" s="6">
-        <v>0</v>
-      </c>
-      <c r="T103" s="6">
-        <v>0</v>
-      </c>
-      <c r="U103" s="6">
-        <v>0</v>
-      </c>
-      <c r="V103" s="6">
-        <v>0</v>
-      </c>
-      <c r="W103" s="6">
-        <v>0</v>
-      </c>
-      <c r="X103" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="6">
-        <v>300232</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F104" s="8">
-        <v>0</v>
-      </c>
-      <c r="G104" s="6">
-        <v>0</v>
-      </c>
-      <c r="H104" s="6">
-        <v>0</v>
-      </c>
-      <c r="I104" s="6">
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <v>0</v>
-      </c>
-      <c r="K104" s="6">
-        <v>0</v>
-      </c>
-      <c r="L104" s="8">
-        <v>0</v>
-      </c>
-      <c r="M104" s="8">
-        <v>0</v>
-      </c>
-      <c r="N104" s="8">
-        <v>0</v>
-      </c>
-      <c r="O104" s="8">
-        <v>0</v>
-      </c>
-      <c r="P104" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>0</v>
-      </c>
-      <c r="R104" s="6">
-        <v>0</v>
-      </c>
-      <c r="S104" s="6">
-        <v>0</v>
-      </c>
-      <c r="T104" s="6">
-        <v>0</v>
-      </c>
-      <c r="U104" s="6">
-        <v>0</v>
-      </c>
-      <c r="V104" s="6">
-        <v>0</v>
-      </c>
-      <c r="W104" s="6">
-        <v>0</v>
-      </c>
-      <c r="X104" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="6">
-        <v>300233</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F105" s="8">
-        <v>0</v>
-      </c>
-      <c r="G105" s="6">
-        <v>0</v>
-      </c>
-      <c r="H105" s="6">
-        <v>0</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
-        <v>0</v>
-      </c>
-      <c r="K105" s="6">
-        <v>0</v>
-      </c>
-      <c r="L105" s="8">
-        <v>0</v>
-      </c>
-      <c r="M105" s="8">
-        <v>0</v>
-      </c>
-      <c r="N105" s="8">
-        <v>0</v>
-      </c>
-      <c r="O105" s="8">
-        <v>0</v>
-      </c>
-      <c r="P105" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="6">
-        <v>0</v>
-      </c>
-      <c r="R105" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="S105" s="6">
-        <v>0</v>
-      </c>
-      <c r="T105" s="6">
-        <v>0</v>
-      </c>
-      <c r="U105" s="6">
-        <v>0</v>
-      </c>
-      <c r="V105" s="6">
-        <v>0</v>
-      </c>
-      <c r="W105" s="6">
-        <v>0</v>
-      </c>
-      <c r="X105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="6">
-        <v>300311</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F106" s="8">
-        <v>0</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0</v>
-      </c>
-      <c r="H106" s="6">
-        <v>0</v>
-      </c>
-      <c r="I106" s="6">
-        <v>0</v>
-      </c>
-      <c r="J106" s="6">
-        <v>0</v>
-      </c>
-      <c r="K106" s="6">
-        <v>0</v>
-      </c>
-      <c r="L106" s="8">
-        <v>0</v>
-      </c>
-      <c r="M106" s="8">
-        <v>0</v>
-      </c>
-      <c r="N106" s="8">
-        <v>0</v>
-      </c>
-      <c r="O106" s="8">
-        <v>0</v>
-      </c>
-      <c r="P106" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="6">
-        <v>0</v>
-      </c>
-      <c r="R106" s="6">
-        <v>0</v>
-      </c>
-      <c r="S106" s="6">
-        <v>0</v>
-      </c>
-      <c r="T106" s="6">
-        <v>0</v>
-      </c>
-      <c r="U106" s="6">
-        <v>0</v>
-      </c>
-      <c r="V106" s="6">
-        <v>0</v>
-      </c>
-      <c r="W106" s="6">
-        <v>0</v>
-      </c>
-      <c r="X106" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="6">
-        <v>300312</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F107" s="8">
-        <v>0</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0</v>
-      </c>
-      <c r="H107" s="6">
-        <v>0</v>
-      </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
-        <v>0</v>
-      </c>
-      <c r="K107" s="6">
-        <v>0</v>
-      </c>
-      <c r="L107" s="8">
-        <v>0</v>
-      </c>
-      <c r="M107" s="8">
-        <v>0</v>
-      </c>
-      <c r="N107" s="8">
-        <v>0</v>
-      </c>
-      <c r="O107" s="8">
-        <v>0</v>
-      </c>
-      <c r="P107" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="6">
-        <v>0</v>
-      </c>
-      <c r="R107" s="6">
-        <v>0</v>
-      </c>
-      <c r="S107" s="6">
-        <v>0</v>
-      </c>
-      <c r="T107" s="6">
-        <v>0</v>
-      </c>
-      <c r="U107" s="6">
-        <v>0</v>
-      </c>
-      <c r="V107" s="6">
-        <v>0</v>
-      </c>
-      <c r="W107" s="6">
-        <v>0</v>
-      </c>
-      <c r="X107" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="6">
-        <v>300313</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F108" s="8">
-        <v>0</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0</v>
-      </c>
-      <c r="H108" s="6">
-        <v>0</v>
-      </c>
-      <c r="I108" s="6">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <v>0</v>
-      </c>
-      <c r="K108" s="6">
-        <v>0</v>
-      </c>
-      <c r="L108" s="8">
-        <v>0</v>
-      </c>
-      <c r="M108" s="8">
-        <v>0</v>
-      </c>
-      <c r="N108" s="8">
-        <v>0</v>
-      </c>
-      <c r="O108" s="8">
-        <v>0</v>
-      </c>
-      <c r="P108" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="6">
-        <v>0</v>
-      </c>
-      <c r="R108" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="S108" s="6">
-        <v>0</v>
-      </c>
-      <c r="T108" s="6">
-        <v>0</v>
-      </c>
-      <c r="U108" s="6">
-        <v>0</v>
-      </c>
-      <c r="V108" s="6">
-        <v>0</v>
-      </c>
-      <c r="W108" s="6">
-        <v>0</v>
-      </c>
-      <c r="X108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="6">
-        <v>300321</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F109" s="8">
-        <v>0</v>
-      </c>
-      <c r="G109" s="6">
-        <v>0</v>
-      </c>
-      <c r="H109" s="6">
-        <v>0</v>
-      </c>
-      <c r="I109" s="6">
-        <v>0</v>
-      </c>
-      <c r="J109" s="6">
-        <v>0</v>
-      </c>
-      <c r="K109" s="6">
-        <v>0</v>
-      </c>
-      <c r="L109" s="8">
-        <v>0</v>
-      </c>
-      <c r="M109" s="8">
-        <v>0</v>
-      </c>
-      <c r="N109" s="8">
-        <v>0</v>
-      </c>
-      <c r="O109" s="8">
-        <v>0</v>
-      </c>
-      <c r="P109" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="6">
-        <v>0</v>
-      </c>
-      <c r="R109" s="6">
-        <v>0</v>
-      </c>
-      <c r="S109" s="6">
-        <v>0</v>
-      </c>
-      <c r="T109" s="6">
-        <v>0</v>
-      </c>
-      <c r="U109" s="6">
-        <v>0</v>
-      </c>
-      <c r="V109" s="6">
-        <v>0</v>
-      </c>
-      <c r="W109" s="6">
-        <v>0</v>
-      </c>
-      <c r="X109" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="6">
-        <v>300322</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0</v>
-      </c>
-      <c r="G110" s="6">
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
-        <v>0</v>
-      </c>
-      <c r="I110" s="6">
-        <v>0</v>
-      </c>
-      <c r="J110" s="6">
-        <v>0</v>
-      </c>
-      <c r="K110" s="6">
-        <v>0</v>
-      </c>
-      <c r="L110" s="8">
-        <v>0</v>
-      </c>
-      <c r="M110" s="8">
-        <v>0</v>
-      </c>
-      <c r="N110" s="8">
-        <v>0</v>
-      </c>
-      <c r="O110" s="8">
-        <v>0</v>
-      </c>
-      <c r="P110" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="6">
-        <v>0</v>
-      </c>
-      <c r="R110" s="6">
-        <v>0</v>
-      </c>
-      <c r="S110" s="6">
-        <v>0</v>
-      </c>
-      <c r="T110" s="6">
-        <v>0</v>
-      </c>
-      <c r="U110" s="6">
-        <v>0</v>
-      </c>
-      <c r="V110" s="6">
-        <v>0</v>
-      </c>
-      <c r="W110" s="6">
-        <v>0</v>
-      </c>
-      <c r="X110" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="6">
-        <v>300323</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F111" s="8">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6">
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
-        <v>0</v>
-      </c>
-      <c r="I111" s="6">
-        <v>0</v>
-      </c>
-      <c r="J111" s="6">
-        <v>0</v>
-      </c>
-      <c r="K111" s="6">
-        <v>0</v>
-      </c>
-      <c r="L111" s="8">
-        <v>0</v>
-      </c>
-      <c r="M111" s="8">
-        <v>0</v>
-      </c>
-      <c r="N111" s="8">
-        <v>0</v>
-      </c>
-      <c r="O111" s="8">
-        <v>0</v>
-      </c>
-      <c r="P111" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="6">
-        <v>0</v>
-      </c>
-      <c r="R111" s="6">
-        <v>0</v>
-      </c>
-      <c r="S111" s="6">
-        <v>0</v>
-      </c>
-      <c r="T111" s="6">
-        <v>0</v>
-      </c>
-      <c r="U111" s="6">
-        <v>0</v>
-      </c>
-      <c r="V111" s="6">
-        <v>0</v>
-      </c>
-      <c r="W111" s="6">
-        <v>0</v>
-      </c>
-      <c r="X111" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="6">
-        <v>300331</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F112" s="8">
-        <v>0</v>
-      </c>
-      <c r="G112" s="6">
-        <v>0</v>
-      </c>
-      <c r="H112" s="6">
-        <v>0</v>
-      </c>
-      <c r="I112" s="6">
-        <v>0</v>
-      </c>
-      <c r="J112" s="6">
-        <v>0</v>
-      </c>
-      <c r="K112" s="6">
-        <v>0</v>
-      </c>
-      <c r="L112" s="8">
-        <v>0</v>
-      </c>
-      <c r="M112" s="8">
-        <v>0</v>
-      </c>
-      <c r="N112" s="8">
-        <v>0</v>
-      </c>
-      <c r="O112" s="8">
-        <v>0</v>
-      </c>
-      <c r="P112" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="6">
-        <v>0</v>
-      </c>
-      <c r="R112" s="6">
-        <v>0</v>
-      </c>
-      <c r="S112" s="6">
-        <v>0</v>
-      </c>
-      <c r="T112" s="6">
-        <v>0</v>
-      </c>
-      <c r="U112" s="6">
-        <v>0</v>
-      </c>
-      <c r="V112" s="6">
-        <v>0</v>
-      </c>
-      <c r="W112" s="6">
-        <v>0</v>
-      </c>
-      <c r="X112" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="6">
-        <v>300332</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F113" s="8">
-        <v>0</v>
-      </c>
-      <c r="G113" s="6">
-        <v>0</v>
-      </c>
-      <c r="H113" s="6">
-        <v>0</v>
-      </c>
-      <c r="I113" s="6">
-        <v>0</v>
-      </c>
-      <c r="J113" s="6">
-        <v>0</v>
-      </c>
-      <c r="K113" s="6">
-        <v>0</v>
-      </c>
-      <c r="L113" s="8">
-        <v>0</v>
-      </c>
-      <c r="M113" s="8">
-        <v>0</v>
-      </c>
-      <c r="N113" s="8">
-        <v>0</v>
-      </c>
-      <c r="O113" s="8">
-        <v>0</v>
-      </c>
-      <c r="P113" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="6">
-        <v>0</v>
-      </c>
-      <c r="R113" s="6">
-        <v>0</v>
-      </c>
-      <c r="S113" s="6">
-        <v>0</v>
-      </c>
-      <c r="T113" s="6">
-        <v>0</v>
-      </c>
-      <c r="U113" s="6">
-        <v>0</v>
-      </c>
-      <c r="V113" s="6">
-        <v>0</v>
-      </c>
-      <c r="W113" s="6">
-        <v>0</v>
-      </c>
-      <c r="X113" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="6">
-        <v>300333</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F114" s="8">
-        <v>0</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
-        <v>0</v>
-      </c>
-      <c r="I114" s="6">
-        <v>0</v>
-      </c>
-      <c r="J114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K114" s="6">
-        <v>0</v>
-      </c>
-      <c r="L114" s="8">
-        <v>0</v>
-      </c>
-      <c r="M114" s="8">
-        <v>0</v>
-      </c>
-      <c r="N114" s="8">
-        <v>0</v>
-      </c>
-      <c r="O114" s="8">
-        <v>0</v>
-      </c>
-      <c r="P114" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="6">
-        <v>0</v>
-      </c>
-      <c r="R114" s="6">
-        <v>0</v>
-      </c>
-      <c r="S114" s="6">
-        <v>0</v>
-      </c>
-      <c r="T114" s="6">
-        <v>0</v>
-      </c>
-      <c r="U114" s="6">
-        <v>0</v>
-      </c>
-      <c r="V114" s="6">
-        <v>0</v>
-      </c>
-      <c r="W114" s="6">
-        <v>0</v>
-      </c>
-      <c r="X114" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="20.1" customHeight="1"/>
+    <row r="92" ht="20.1" customHeight="1"/>
+    <row r="93" ht="20.1" customHeight="1"/>
+    <row r="94" ht="20.1" customHeight="1"/>
+    <row r="95" ht="20.1" customHeight="1"/>
+    <row r="96" ht="20.1" customHeight="1"/>
+    <row r="97" ht="20.1" customHeight="1"/>
+    <row r="98" ht="20.1" customHeight="1"/>
+    <row r="99" ht="20.1" customHeight="1"/>
+    <row r="100" ht="20.1" customHeight="1"/>
+    <row r="101" ht="20.1" customHeight="1"/>
+    <row r="102" ht="20.1" customHeight="1"/>
+    <row r="103" ht="20.1" customHeight="1"/>
+    <row r="104" ht="20.1" customHeight="1"/>
+    <row r="105" ht="20.1" customHeight="1"/>
+    <row r="106" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>